--- a/src/functionalTest/resources/hrs_ccd_case_definition_AAT.xlsx
+++ b/src/functionalTest/resources/hrs_ccd_case_definition_AAT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="306">
   <si>
     <t xml:space="preserve">Change History</t>
   </si>
@@ -225,6 +225,15 @@
     <t xml:space="preserve">Initial case state – create case details as a minimum; add files, etc.</t>
   </si>
   <si>
+    <t xml:space="preserve">1_CLOSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close the case</t>
+  </si>
+  <si>
     <t xml:space="preserve">CaseField</t>
   </si>
   <si>
@@ -341,7 +350,7 @@
     <t xml:space="preserve">recordingReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Recording Reference</t>
+    <t xml:space="preserve">Case Reference</t>
   </si>
   <si>
     <t xml:space="preserve">recordingFiles</t>
@@ -414,19 +423,19 @@
     <t xml:space="preserve">File URL</t>
   </si>
   <si>
-    <t xml:space="preserve">segmentNumber</t>
+    <t xml:space="preserve">segmentNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearing File Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the file is split into parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fileSize</t>
   </si>
   <si>
     <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hearing File Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the file is split into parts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fileSize</t>
   </si>
   <si>
     <t xml:space="preserve">Hearing File Size</t>
@@ -593,6 +602,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://em-hrs-api-aat.service.core-compute-aat.internal/sharees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closeCase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close a case</t>
   </si>
   <si>
     <t xml:space="preserve">CaseEventToFields</t>
@@ -1473,7 +1488,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1694,6 +1709,38 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1701,38 +1748,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1803,6 +1818,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2217,7 +2236,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2323,7 +2342,7 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -2345,7 +2364,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -2372,31 +2391,31 @@
         <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
@@ -2413,38 +2432,38 @@
       <c r="X2" s="47"/>
     </row>
     <row r="3" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="90" t="s">
+      <c r="D3" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="90" t="s">
-        <v>108</v>
+      <c r="E3" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2465,8 +2484,8 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2488,7 +2507,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="12" t="s">
@@ -2519,31 +2538,31 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2557,236 +2576,237 @@
         <v>49</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+        <v>112</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="62" t="n">
+      <c r="D4" s="60"/>
+      <c r="E4" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="60" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="62" t="n">
+        <v>74</v>
+      </c>
+      <c r="I4" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="62"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="62"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="62" t="n">
+      <c r="D5" s="60"/>
+      <c r="E5" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="60" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="62" t="n">
+        <v>78</v>
+      </c>
+      <c r="I5" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="62" t="n">
+      <c r="D6" s="60"/>
+      <c r="E6" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="60" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="62" t="n">
+        <v>82</v>
+      </c>
+      <c r="I6" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="62" t="n">
+      <c r="D7" s="60"/>
+      <c r="E7" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="60" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="62" t="n">
+        <v>89</v>
+      </c>
+      <c r="I7" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="62" t="n">
+      <c r="D8" s="60"/>
+      <c r="E8" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="60" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="62" t="n">
+        <v>91</v>
+      </c>
+      <c r="I8" s="60" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="62" t="n">
+      <c r="D9" s="60"/>
+      <c r="E9" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="60" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="62" t="n">
+        <v>93</v>
+      </c>
+      <c r="I9" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="62" t="n">
+      <c r="D10" s="60"/>
+      <c r="E10" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="60" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="62" t="n">
+        <v>95</v>
+      </c>
+      <c r="I10" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87"/>
+      <c r="A11" s="88"/>
       <c r="C11" s="28"/>
-      <c r="H11" s="88"/>
-    </row>
+      <c r="H11" s="89"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2807,190 +2827,190 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="94" width="30.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="94" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="94" width="54.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="94" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="94" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="94" width="44.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="94" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="94" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="94" width="43.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="94" width="19.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="94" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="95" width="30.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="95" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="95" width="54.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="95" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="95" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="95" width="44.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="95" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="95" width="36.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="95" width="43.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="95" width="19.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="95" width="10.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="96" t="s">
+      <c r="A1" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="102" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="103" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="104" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="102" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+      <c r="E2" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="H2" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="104"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="107" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="107" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="108" t="s">
-        <v>239</v>
-      </c>
-      <c r="K3" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="F3" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3010,8 +3030,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3031,22 +3051,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="15"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
       <c r="J1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3060,25 +3080,25 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3088,45 +3108,45 @@
       <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="115" t="s">
-        <v>183</v>
+      <c r="D3" s="116" t="s">
+        <v>188</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" s="54" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="74" t="n">
@@ -3144,11 +3164,11 @@
         <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="74" t="n">
@@ -3166,11 +3186,11 @@
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="74" t="n">
@@ -3188,11 +3208,11 @@
         <v>38</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="74" t="n">
@@ -3210,11 +3230,11 @@
         <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="74" t="n">
@@ -3227,23 +3247,23 @@
       <c r="A9" s="24" t="n">
         <v>44197</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="62"/>
+        <v>82</v>
+      </c>
+      <c r="E9" s="60"/>
       <c r="F9" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="62"/>
+        <v>83</v>
+      </c>
+      <c r="G9" s="60"/>
       <c r="H9" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" s="54" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="65"/>
@@ -3298,8 +3318,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3319,7 +3339,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -3347,60 +3367,60 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="117" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
+        <v>108</v>
+      </c>
+      <c r="I2" s="118" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="120" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="90" t="s">
+      <c r="D3" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="121" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="122"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
+      <c r="H3" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="123"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
     </row>
     <row r="4" s="67" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="n">
@@ -3411,11 +3431,11 @@
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="74" t="n">
         <v>1</v>
@@ -3433,11 +3453,11 @@
         <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" s="74" t="n">
         <v>2</v>
@@ -3455,11 +3475,11 @@
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="74" t="n">
         <v>3</v>
@@ -3477,11 +3497,11 @@
         <v>38</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="52"/>
       <c r="F7" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G7" s="74" t="n">
         <v>4</v>
@@ -3499,11 +3519,11 @@
         <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" s="74" t="n">
         <v>6</v>
@@ -3512,7 +3532,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" s="124" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="125" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="n">
         <v>44197</v>
       </c>
@@ -3521,11 +3541,11 @@
         <v>38</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G9" s="74" t="n">
         <v>7</v>
@@ -3535,26 +3555,26 @@
       <c r="J9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="87"/>
+      <c r="A10" s="88"/>
       <c r="C10" s="28"/>
-      <c r="G10" s="125"/>
+      <c r="G10" s="126"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87"/>
+      <c r="A11" s="88"/>
       <c r="C11" s="28"/>
-      <c r="G11" s="125"/>
+      <c r="G11" s="126"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="87"/>
-      <c r="G12" s="125"/>
+      <c r="A12" s="88"/>
+      <c r="G12" s="126"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="87"/>
-      <c r="G13" s="125"/>
+      <c r="A13" s="88"/>
+      <c r="G13" s="126"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="87"/>
-      <c r="G14" s="125"/>
+      <c r="A14" s="88"/>
+      <c r="G14" s="126"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3575,7 +3595,7 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -3594,70 +3614,70 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="126" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="128" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="128" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="128" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="E2" s="129" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="129" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="129" t="s">
+      <c r="D3" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="129" t="s">
-        <v>255</v>
+      <c r="G3" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3678,42 +3698,42 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="131" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="131" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="131" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="132" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="132" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="132" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="131" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="131" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="131" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="132" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="132" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="132" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="21.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="11" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="132" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="133" t="s">
+      <c r="A1" s="133" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="135" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="15"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
       <c r="J1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,57 +3747,57 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="90" t="s">
+      <c r="D3" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="90" t="s">
-        <v>221</v>
+      <c r="I3" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" s="54" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3789,11 +3809,11 @@
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="74" t="n">
@@ -3811,11 +3831,11 @@
         <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74" t="n">
@@ -3833,11 +3853,11 @@
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="n">
@@ -3855,11 +3875,11 @@
         <v>38</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="52"/>
       <c r="F7" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="74" t="n">
@@ -3877,18 +3897,18 @@
         <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="62"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="n">
@@ -3899,18 +3919,18 @@
         <v>38</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="136"/>
-      <c r="J9" s="62"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
@@ -3921,18 +3941,18 @@
         <v>38</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="52" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="74" t="n">
         <v>8</v>
       </c>
-      <c r="I10" s="136"/>
-      <c r="J10" s="62"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3953,8 +3973,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3973,7 +3993,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -4001,56 +4021,56 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="120" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="90" t="s">
+      <c r="D3" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
+      <c r="H3" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
     </row>
     <row r="4" s="54" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="n">
@@ -4061,11 +4081,11 @@
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="74" t="n">
         <v>1</v>
@@ -4083,11 +4103,11 @@
         <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" s="74" t="n">
         <v>2</v>
@@ -4105,11 +4125,11 @@
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="74" t="n">
         <v>3</v>
@@ -4127,11 +4147,11 @@
         <v>38</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G7" s="74" t="n">
         <v>4</v>
@@ -4149,11 +4169,11 @@
         <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" s="74" t="n">
         <v>6</v>
@@ -4171,11 +4191,11 @@
         <v>38</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G9" s="74" t="n">
         <v>7</v>
@@ -4193,11 +4213,11 @@
         <v>38</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="52" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G10" s="74" t="n">
         <v>8</v>
@@ -4207,32 +4227,32 @@
       <c r="J10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="F11" s="137"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="F11" s="138"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="F12" s="137"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="F12" s="138"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="F13" s="137"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="F13" s="138"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="F14" s="137"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="F14" s="138"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4254,8 +4274,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4272,7 +4292,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -4295,13 +4315,13 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4312,27 +4332,27 @@
         <v>18</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="138" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="138" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="139" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="42" t="s">
@@ -4343,8 +4363,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="87"/>
-      <c r="C5" s="139"/>
+      <c r="A5" s="88"/>
+      <c r="C5" s="140"/>
     </row>
     <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4369,7 +4389,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4382,7 +4402,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -4404,44 +4424,44 @@
         <v>12</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="91" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87"/>
+      <c r="A4" s="88"/>
       <c r="C4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="87"/>
+      <c r="A5" s="88"/>
       <c r="C5" s="28"/>
     </row>
   </sheetData>
@@ -4462,7 +4482,7 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4586,7 +4606,7 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4603,7 +4623,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -4624,13 +4644,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4644,25 +4664,25 @@
         <v>49</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" s="54" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
@@ -4697,8 +4717,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4714,8 +4734,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="141" t="s">
-        <v>277</v>
+      <c r="A1" s="142" t="s">
+        <v>282</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -4726,12 +4746,12 @@
       <c r="D1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" customFormat="false" ht="65.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -4741,64 +4761,64 @@
         <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="144" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="144" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="143" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
+      <c r="D3" s="145" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="145" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="144" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" s="54" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
@@ -4814,162 +4834,162 @@
       <c r="A5" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B5" s="116"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B8" s="116"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B9" s="116"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B10" s="116"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B11" s="116"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B12" s="116"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B13" s="116"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5016,8 +5036,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5034,7 +5054,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -5056,16 +5076,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
@@ -5080,89 +5100,107 @@
       <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="145" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="145" t="s">
-        <v>221</v>
+      <c r="D3" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="146" t="s">
+        <v>226</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B5" s="116"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>163</v>
+      <c r="D7" s="60" t="s">
+        <v>166</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="49" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5191,37 +5229,37 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="146" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="146" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="146" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="146" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="146" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="146" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="7" style="146" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="147" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="7" style="147" width="14.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="256" style="11" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="147" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="148" t="s">
+      <c r="A1" s="148" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
     </row>
     <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -5231,41 +5269,41 @@
         <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="153" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="152" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>273</v>
-      </c>
       <c r="F2" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
+        <v>279</v>
+      </c>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="145" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="154" t="s">
-        <v>275</v>
+      <c r="D3" s="146" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="155" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4" s="54" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5280,10 +5318,10 @@
         <v>52</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
@@ -5317,8 +5355,8 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5335,7 +5373,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -5354,19 +5392,19 @@
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>273</v>
-      </c>
       <c r="G2" s="17" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,16 +5418,16 @@
         <v>49</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" s="54" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5401,16 +5439,16 @@
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" s="54" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5422,16 +5460,16 @@
         <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" s="54" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5443,16 +5481,16 @@
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5474,74 +5512,74 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="124" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="124" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="124" width="31.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="124" width="41.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="124" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="125" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="125" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="125" width="31.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="125" width="41.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="125" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="155" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
+      <c r="A1" s="156" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="158" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="158" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="158" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="158" t="s">
-        <v>292</v>
+      <c r="A2" s="159" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="159" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="159" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="159" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="159" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="159" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="159" t="s">
-        <v>296</v>
+      <c r="A3" s="160" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="160" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="160" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="160" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4" s="67" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="160" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="161" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="161" t="s">
-        <v>299</v>
+      <c r="A4" s="161" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="162" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="162" t="s">
+        <v>304</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" s="67" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="162"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="164"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="165"/>
     </row>
     <row r="6" s="67" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" s="67" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5565,7 +5603,7 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5723,8 +5761,8 @@
   </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5845,9 +5883,36 @@
       <c r="P4" s="53"/>
       <c r="Q4" s="53"/>
     </row>
-    <row r="5" s="54" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55"/>
-      <c r="C5" s="56"/>
+    <row r="5" s="54" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5872,8 +5937,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5897,16 +5962,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5921,31 +5986,31 @@
         <v>43</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M2" s="47"/>
       <c r="N2" s="47"/>
@@ -5967,34 +6032,34 @@
         <v>19</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
+        <v>73</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" s="54" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
@@ -6005,26 +6070,26 @@
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G4" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
       <c r="AHE4" s="0"/>
       <c r="AHF4" s="0"/>
       <c r="AHG4" s="0"/>
@@ -6170,25 +6235,25 @@
       <c r="C5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>75</v>
+      <c r="D5" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="AHE5" s="0"/>
       <c r="AHF5" s="0"/>
       <c r="AHG5" s="0"/>
@@ -6334,23 +6399,23 @@
       <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>79</v>
+      <c r="D6" s="61" t="s">
+        <v>82</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
       <c r="AHE6" s="0"/>
       <c r="AHF6" s="0"/>
       <c r="AHG6" s="0"/>
@@ -6496,25 +6561,25 @@
       <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
       <c r="AHE7" s="0"/>
       <c r="AHF7" s="0"/>
       <c r="AHG7" s="0"/>
@@ -6660,23 +6725,23 @@
       <c r="C8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="63" t="s">
-        <v>84</v>
+      <c r="D8" s="61" t="s">
+        <v>87</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="62"/>
+        <v>88</v>
+      </c>
+      <c r="F8" s="60"/>
       <c r="G8" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
       <c r="AHE8" s="0"/>
       <c r="AHF8" s="0"/>
       <c r="AHG8" s="0"/>
@@ -6822,23 +6887,23 @@
       <c r="C9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>86</v>
+      <c r="D9" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="62"/>
+        <v>90</v>
+      </c>
+      <c r="F9" s="60"/>
       <c r="G9" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
       <c r="AHE9" s="0"/>
       <c r="AHF9" s="0"/>
       <c r="AHG9" s="0"/>
@@ -6984,23 +7049,23 @@
       <c r="C10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>88</v>
+      <c r="D10" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="62"/>
+        <v>92</v>
+      </c>
+      <c r="F10" s="60"/>
       <c r="G10" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
       <c r="AHE10" s="0"/>
       <c r="AHF10" s="0"/>
       <c r="AHG10" s="0"/>
@@ -7146,23 +7211,23 @@
       <c r="C11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>90</v>
+      <c r="D11" s="62" t="s">
+        <v>93</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="62"/>
+        <v>94</v>
+      </c>
+      <c r="F11" s="60"/>
       <c r="G11" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
       <c r="AHE11" s="0"/>
       <c r="AHF11" s="0"/>
       <c r="AHG11" s="0"/>
@@ -7309,24 +7374,24 @@
         <v>38</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="51" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="62"/>
+        <v>98</v>
+      </c>
+      <c r="I12" s="60"/>
       <c r="J12" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
       <c r="AHE12" s="0"/>
       <c r="AHF12" s="0"/>
       <c r="AHG12" s="0"/>
@@ -7473,22 +7538,22 @@
         <v>38</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="62"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="60"/>
       <c r="G13" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+        <v>81</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
       <c r="AHE13" s="0"/>
       <c r="AHF13" s="0"/>
       <c r="AHG13" s="0"/>
@@ -7627,8 +7692,8 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="54" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="65"/>
       <c r="E14" s="65"/>
       <c r="F14" s="53"/>
@@ -9446,8 +9511,8 @@
   </sheetPr>
   <dimension ref="A1:IU18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9473,7 +9538,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -9504,43 +9569,43 @@
         <v>12</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K2" s="34" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P2" s="70"/>
       <c r="Q2" s="47"/>
@@ -9557,73 +9622,73 @@
         <v>19</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>50</v>
       </c>
       <c r="O3" s="72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P3" s="73"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" s="54" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="62"/>
+        <v>115</v>
+      </c>
+      <c r="H4" s="60"/>
       <c r="I4" s="74"/>
-      <c r="J4" s="62"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" s="54" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="n">
@@ -9631,22 +9696,22 @@
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+        <v>117</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K5" s="51" t="s">
         <v>41</v>
@@ -9902,22 +9967,22 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+        <v>121</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="52" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K6" s="51" t="s">
         <v>41</v>
@@ -10257,7 +10322,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -10273,7 +10338,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -10295,16 +10360,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
@@ -10322,34 +10387,34 @@
         <v>19</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F3" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="62" t="n">
+        <v>129</v>
+      </c>
+      <c r="F4" s="60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10357,17 +10422,17 @@
       <c r="A5" s="49" t="n">
         <v>44197</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="62" t="n">
+        <v>130</v>
+      </c>
+      <c r="F5" s="60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10388,10 +10453,10 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O35" activeCellId="0" sqref="O35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10410,7 +10475,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="11" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="58.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="53.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="28.14"/>
@@ -10421,7 +10486,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -10460,55 +10525,55 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10534,43 +10599,43 @@
         <v>50</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S3" s="76" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T3" s="76" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="U3" s="76" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10582,13 +10647,13 @@
         <v>38</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G4" s="50" t="n">
         <v>1</v>
@@ -10608,7 +10673,7 @@
       <c r="P4" s="50"/>
       <c r="R4" s="80"/>
       <c r="S4" s="80" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T4" s="50"/>
       <c r="U4" s="50"/>
@@ -10622,13 +10687,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G5" s="50" t="n">
         <v>2</v>
@@ -10650,7 +10715,7 @@
       <c r="P5" s="50"/>
       <c r="R5" s="80"/>
       <c r="S5" s="80" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T5" s="50"/>
       <c r="U5" s="50"/>
@@ -10664,13 +10729,13 @@
         <v>38</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G6" s="50" t="n">
         <v>3</v>
@@ -10692,7 +10757,7 @@
       <c r="P6" s="50"/>
       <c r="R6" s="80"/>
       <c r="S6" s="80" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T6" s="50"/>
       <c r="U6" s="50"/>
@@ -10705,14 +10770,14 @@
       <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>164</v>
+      <c r="D7" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>167</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G7" s="50" t="n">
         <v>4</v>
@@ -10733,17 +10798,61 @@
       <c r="M7" s="50"/>
       <c r="N7" s="50"/>
       <c r="O7" s="82" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P7" s="50"/>
       <c r="R7" s="80" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S7" s="80" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="T7" s="50"/>
       <c r="U7" s="50"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="49" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="R8" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="S8" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10766,8 +10875,8 @@
   </sheetPr>
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10796,7 +10905,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>8</v>
@@ -10835,55 +10944,55 @@
         <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="U2" s="47"/>
       <c r="V2" s="47"/>
@@ -10910,55 +11019,55 @@
         <v>49</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="83" t="s">
-        <v>192</v>
+        <v>111</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>197</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10970,34 +11079,34 @@
         <v>38</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
       <c r="H4" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J4" s="62"/>
+      <c r="I4" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="60"/>
       <c r="K4" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L4" s="51"/>
-      <c r="M4" s="62" t="n">
+      <c r="M4" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="74"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="n">
@@ -11008,34 +11117,34 @@
         <v>38</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="62"/>
+      <c r="I5" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="60"/>
       <c r="K5" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L5" s="51"/>
-      <c r="M5" s="62" t="n">
+      <c r="M5" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="74"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="n">
@@ -11046,10 +11155,10 @@
         <v>38</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
@@ -11058,24 +11167,24 @@
       <c r="H6" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="62"/>
+      <c r="I6" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J6" s="60"/>
       <c r="K6" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L6" s="51"/>
-      <c r="M6" s="62" t="n">
+      <c r="M6" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
       <c r="R6" s="74"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="n">
@@ -11086,34 +11195,34 @@
         <v>38</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="62"/>
+      <c r="I7" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="60"/>
       <c r="K7" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L7" s="51"/>
-      <c r="M7" s="62" t="n">
+      <c r="M7" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
       <c r="R7" s="74"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="n">
@@ -11124,34 +11233,34 @@
         <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="62"/>
+      <c r="I8" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="60"/>
       <c r="K8" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L8" s="51"/>
-      <c r="M8" s="62" t="n">
+      <c r="M8" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
       <c r="Q8" s="51"/>
       <c r="R8" s="74"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="n">
@@ -11162,34 +11271,34 @@
         <v>38</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="62"/>
+      <c r="I9" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="60"/>
       <c r="K9" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L9" s="51"/>
-      <c r="M9" s="62" t="n">
+      <c r="M9" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="74"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="n">
@@ -11200,34 +11309,34 @@
         <v>38</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J10" s="62"/>
+      <c r="I10" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="60"/>
       <c r="K10" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L10" s="51"/>
-      <c r="M10" s="62" t="n">
+      <c r="M10" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
       <c r="Q10" s="51"/>
       <c r="R10" s="74"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
@@ -11238,34 +11347,34 @@
         <v>38</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J11" s="62"/>
+      <c r="I11" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="60"/>
       <c r="K11" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L11" s="51"/>
-      <c r="M11" s="62" t="n">
+      <c r="M11" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
       <c r="Q11" s="51"/>
       <c r="R11" s="74"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="n">
@@ -11276,34 +11385,34 @@
         <v>38</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" s="62"/>
+      <c r="I12" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" s="60"/>
       <c r="K12" s="74" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L12" s="51"/>
-      <c r="M12" s="62" t="n">
+      <c r="M12" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
       <c r="Q12" s="51"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="n">
@@ -11314,34 +11423,34 @@
         <v>38</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
+        <v>74</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="62"/>
+      <c r="I13" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="60"/>
       <c r="K13" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L13" s="51"/>
-      <c r="M13" s="62" t="n">
+      <c r="M13" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="74"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="n">
@@ -11352,34 +11461,34 @@
         <v>38</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J14" s="62"/>
+      <c r="I14" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="60"/>
       <c r="K14" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L14" s="51"/>
-      <c r="M14" s="62" t="n">
+      <c r="M14" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="74"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
@@ -11390,34 +11499,34 @@
         <v>38</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J15" s="62"/>
+      <c r="I15" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="60"/>
       <c r="K15" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L15" s="51"/>
-      <c r="M15" s="62" t="n">
+      <c r="M15" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
       <c r="Q15" s="51"/>
       <c r="R15" s="74"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
@@ -11428,34 +11537,34 @@
         <v>38</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J16" s="62"/>
+      <c r="I16" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="60"/>
       <c r="K16" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L16" s="51"/>
-      <c r="M16" s="62" t="n">
+      <c r="M16" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
       <c r="Q16" s="51"/>
       <c r="R16" s="74"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
@@ -11466,34 +11575,34 @@
         <v>38</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="62"/>
+      <c r="I17" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="60"/>
       <c r="K17" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L17" s="51"/>
-      <c r="M17" s="62" t="n">
+      <c r="M17" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="74"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
@@ -11504,34 +11613,34 @@
         <v>38</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="62"/>
+      <c r="I18" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="60"/>
       <c r="K18" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L18" s="51"/>
-      <c r="M18" s="62" t="n">
+      <c r="M18" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
       <c r="Q18" s="51"/>
       <c r="R18" s="74"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
@@ -11542,34 +11651,34 @@
         <v>38</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
       <c r="H19" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J19" s="62"/>
+      <c r="I19" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="60"/>
       <c r="K19" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L19" s="51"/>
-      <c r="M19" s="62" t="n">
+      <c r="M19" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="74"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
@@ -11580,34 +11689,34 @@
         <v>38</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J20" s="62"/>
+      <c r="I20" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" s="60"/>
       <c r="K20" s="74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L20" s="51"/>
-      <c r="M20" s="62" t="n">
+      <c r="M20" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
       <c r="Q20" s="51"/>
       <c r="R20" s="74"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
@@ -11618,34 +11727,34 @@
         <v>38</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J21" s="62"/>
+      <c r="I21" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="60"/>
       <c r="K21" s="74" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L21" s="51"/>
-      <c r="M21" s="62" t="n">
+      <c r="M21" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
       <c r="Q21" s="51"/>
       <c r="R21" s="74"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
@@ -11656,34 +11765,34 @@
         <v>38</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="62"/>
+      <c r="I22" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" s="60"/>
       <c r="K22" s="74" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L22" s="51"/>
-      <c r="M22" s="62" t="n">
+      <c r="M22" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="51"/>
       <c r="R22" s="74"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
@@ -11693,163 +11802,163 @@
       <c r="C23" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="62" t="s">
-        <v>163</v>
+      <c r="D23" s="60" t="s">
+        <v>166</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="J23" s="62"/>
+      <c r="I23" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" s="60"/>
       <c r="K23" s="25" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L23" s="51"/>
-      <c r="M23" s="62" t="n">
+      <c r="M23" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
       <c r="Q23" s="51"/>
       <c r="R23" s="74"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="Q24" s="88"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="Q24" s="89"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="Q25" s="89"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="Q26" s="88"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="Q26" s="89"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="Q27" s="88"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="Q27" s="89"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="Q29" s="88"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="Q29" s="89"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="Q30" s="88"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="Q30" s="89"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="Q31" s="88"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="Q31" s="89"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="Q32" s="88"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="Q32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="Q33" s="88"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="Q33" s="89"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="Q34" s="88"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="Q34" s="89"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
